--- a/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,12 @@
   <si>
     <t>上班</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂俊廷</t>
+  </si>
+  <si>
+    <t>上班</t>
   </si>
 </sst>
 </file>
@@ -582,27 +588,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -910,7 +909,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:N5"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -956,10 +955,10 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="13"/>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="50"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -1028,7 +1027,7 @@
       <c r="B5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="31">
@@ -1037,7 +1036,7 @@
       <c r="E5" s="25">
         <v>0.75694444444444453</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="49" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="28"/>
@@ -1062,18 +1061,32 @@
       <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36"/>
+      <c r="L6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="35">
+        <v>36.5</v>
+      </c>
+      <c r="N6" s="36">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="7" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26">
@@ -1665,12 +1678,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M4:N34">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>37.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:N5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>37.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>上班</t>
+  </si>
+  <si>
+    <t>補行上班</t>
   </si>
 </sst>
 </file>
@@ -909,7 +912,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1095,18 +1098,32 @@
       <c r="B7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="28"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36"/>
+      <c r="L7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="35">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="N7" s="36">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="26">

--- a/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>補行上班</t>
+  </si>
+  <si>
+    <t>颱風假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -912,7 +916,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1132,18 +1136,20 @@
       <c r="B8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="45"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="26">
@@ -1152,18 +1158,32 @@
       <c r="B9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="28"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="36"/>
+      <c r="L9" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="35">
+        <v>36.4</v>
+      </c>
+      <c r="N9" s="36">
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="10" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="37">
@@ -1264,18 +1284,32 @@
       <c r="B14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="31">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
+      <c r="L14" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="35">
+        <v>36.5</v>
+      </c>
+      <c r="N14" s="36">
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="26">

--- a/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,7 +608,14 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -916,7 +923,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1318,18 +1325,32 @@
       <c r="B15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="29"/>
+      <c r="C15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="31">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36"/>
+      <c r="L15" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="35">
+        <v>36.4</v>
+      </c>
+      <c r="N15" s="36">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="16" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="26">
@@ -1729,12 +1750,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M4:N34">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>37.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:N5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>37.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -923,7 +923,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C19" sqref="C19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1359,18 +1359,32 @@
       <c r="B16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="29"/>
+      <c r="C16" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
+      <c r="L16" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="35">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="N16" s="36">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="17" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="37">
@@ -1419,18 +1433,32 @@
       <c r="B19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="29"/>
+      <c r="C19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="31">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G19" s="28"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
+      <c r="L19" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="35">
+        <v>36.5</v>
+      </c>
+      <c r="N19" s="36">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="20" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="26">

--- a/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,7 +608,14 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -923,7 +930,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:N19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1467,18 +1474,32 @@
       <c r="B20" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="29"/>
+      <c r="C20" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="31">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="G20" s="28"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="36"/>
+      <c r="L20" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="35">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="N20" s="36">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="21" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="26">
@@ -1487,18 +1508,32 @@
       <c r="B21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="29"/>
+      <c r="C21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G21" s="28"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="36"/>
+      <c r="L21" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="35">
+        <v>36.4</v>
+      </c>
+      <c r="N21" s="36">
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="22" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="26">
@@ -1507,18 +1542,32 @@
       <c r="B22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="31">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G22" s="28"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="36"/>
+      <c r="L22" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="35">
+        <v>36.4</v>
+      </c>
+      <c r="N22" s="36">
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="23" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="26">
@@ -1778,11 +1827,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M4:N34">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>37.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:N5">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>37.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:N5">
+  <conditionalFormatting sqref="M20:N20">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>37.5</formula>
     </cfRule>

--- a/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,7 +930,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C23" sqref="C23:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1576,18 +1576,32 @@
       <c r="B23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="29"/>
+      <c r="C23" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="31">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G23" s="28"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="36"/>
+      <c r="L23" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="35">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="N23" s="36">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="24" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="37">

--- a/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/10月/202310月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>上班</t>
-  </si>
-  <si>
-    <t>補行上班</t>
   </si>
   <si>
     <t>颱風假</t>
@@ -929,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:N23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1134,7 +1131,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="35">
         <v>36.299999999999997</v>
@@ -1160,7 +1157,7 @@
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
       <c r="L8" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="45"/>
       <c r="N8" s="46"/>
@@ -1384,7 +1381,7 @@
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
       <c r="L16" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M16" s="35">
         <v>36.299999999999997</v>
@@ -1594,7 +1591,7 @@
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M23" s="35">
         <v>36.299999999999997</v>
@@ -1650,18 +1647,32 @@
       <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="29"/>
+      <c r="C26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="31">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G26" s="28"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
+      <c r="L26" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="35">
+        <v>36.5</v>
+      </c>
+      <c r="N26" s="36">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="27" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="26">
@@ -1670,18 +1681,32 @@
       <c r="B27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="29"/>
+      <c r="C27" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="31">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G27" s="28"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="36"/>
+      <c r="L27" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="35">
+        <v>36.4</v>
+      </c>
+      <c r="N27" s="36">
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="28" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="26">
@@ -1690,18 +1715,32 @@
       <c r="B28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="29"/>
+      <c r="C28" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="31">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G28" s="28"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="36"/>
+      <c r="L28" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="35">
+        <v>36.4</v>
+      </c>
+      <c r="N28" s="36">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="29" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="26">
@@ -1710,18 +1749,32 @@
       <c r="B29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="29"/>
+      <c r="C29" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="31">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G29" s="28"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="36"/>
+      <c r="L29" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="35">
+        <v>36.4</v>
+      </c>
+      <c r="N29" s="36">
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="30" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="26">
@@ -1730,18 +1783,32 @@
       <c r="B30" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="29"/>
+      <c r="C30" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="31">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G30" s="28"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="36"/>
+      <c r="L30" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="35">
+        <v>36.5</v>
+      </c>
+      <c r="N30" s="36">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="31" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="37">
@@ -1790,18 +1857,32 @@
       <c r="B33" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="29"/>
+      <c r="C33" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="31">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="E33" s="25">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G33" s="28"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="36"/>
+      <c r="L33" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="35">
+        <v>36.5</v>
+      </c>
+      <c r="N33" s="36">
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="34" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="26">
@@ -1810,18 +1891,32 @@
       <c r="B34" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="29"/>
+      <c r="C34" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="31">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="E34" s="25">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G34" s="28"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="36"/>
+      <c r="L34" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="35">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="N34" s="36">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="24.95" customHeight="1">
       <c r="B35" s="24"/>
